--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B67" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B75" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
